--- a/August_Export_SD_2_Sept_updated.xlsx
+++ b/August_Export_SD_2_Sept_updated.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet7" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_With_Formulas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August_Summary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,8 +37,47 @@
       <b val="1"/>
       <color rgb="000000FF"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="00666666"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -62,6 +102,24 @@
         <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -81,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -91,6 +149,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -42982,4 +43055,601 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>AUGUST METRICS SUMMARY (Total across August)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Total Students in August</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>374</v>
+      </c>
+      <c r="C4" s="11">
+        <f>COUNTA(August!A:A)-1</f>
+        <v/>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>Total number of students in August dataset</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Average VWE modules commenced per student</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="11">
+        <f>AVERAGE(August!K:K)</f>
+        <v/>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Average Virtual Work Experience modules started per student</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Average industry-based modules completed per student</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C6" s="11">
+        <f>AVERAGE(Industry_Module_Count)</f>
+        <v/>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>Average number of industry modules completed per student</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Average modules engaged with per session per student</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C7" s="11">
+        <f>AVERAGE(Modules_Per_Session)</f>
+        <v/>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>Average modules engaged per web session per student</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>VWE MODULES BREAKDOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="inlineStr">
+        <is>
+          <t>VWE Level</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>1 Module</t>
+        </is>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>103</v>
+      </c>
+      <c r="C12" s="16" t="inlineStr">
+        <is>
+          <t>53.6%</t>
+        </is>
+      </c>
+      <c r="D12" s="16">
+        <f>COUNTIF(August!K:K,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>2 Modules</t>
+        </is>
+      </c>
+      <c r="B13" s="16" t="n">
+        <v>66</v>
+      </c>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>34.4%</t>
+        </is>
+      </c>
+      <c r="D13" s="16">
+        <f>COUNTIF(August!K:K,2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>3 Modules</t>
+        </is>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>9.9%</t>
+        </is>
+      </c>
+      <c r="D14" s="16">
+        <f>COUNTIF(August!K:K,3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>4 Modules</t>
+        </is>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="D15" s="16">
+        <f>COUNTIF(August!K:K,4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>Total with VWE</t>
+        </is>
+      </c>
+      <c r="B16" s="16" t="n">
+        <v>192</v>
+      </c>
+      <c r="C16" s="16" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D16" s="16">
+        <f>COUNTA(August!K:K)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="13" t="inlineStr">
+        <is>
+          <t>INDUSTRY MODULES BREAKDOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="inlineStr">
+        <is>
+          <t>Module Count Range</t>
+        </is>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>1-3 Modules</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="n">
+        <v>168</v>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>50.5%</t>
+        </is>
+      </c>
+      <c r="D20" s="16">
+        <f>COUNTIFS(Industry_Module_Count,"&lt;=3")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="inlineStr">
+        <is>
+          <t>4-6 Modules</t>
+        </is>
+      </c>
+      <c r="B21" s="16" t="n">
+        <v>117</v>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>35.1%</t>
+        </is>
+      </c>
+      <c r="D21" s="16">
+        <f>COUNTIFS(Industry_Module_Count,"&gt;=4",Industry_Module_Count,"&lt;=6")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="inlineStr">
+        <is>
+          <t>7+ Modules</t>
+        </is>
+      </c>
+      <c r="B22" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>14.4%</t>
+        </is>
+      </c>
+      <c r="D22" s="16">
+        <f>COUNTIFS(Industry_Module_Count,"&gt;=7")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="inlineStr">
+        <is>
+          <t>Total with Industry Data</t>
+        </is>
+      </c>
+      <c r="B23" s="16" t="n">
+        <v>333</v>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D23" s="16">
+        <f>COUNTA(August!J:J)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="13" t="inlineStr">
+        <is>
+          <t>ENGAGEMENT PER SESSION BREAKDOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="inlineStr">
+        <is>
+          <t>Modules per Session</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="15" t="inlineStr">
+        <is>
+          <t>0-2 Modules</t>
+        </is>
+      </c>
+      <c r="B28" s="16" t="n">
+        <v>135</v>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>49.6%</t>
+        </is>
+      </c>
+      <c r="D28" s="16">
+        <f>COUNTIFS(Modules_Per_Session,"&lt;=2")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="inlineStr">
+        <is>
+          <t>3-5 Modules</t>
+        </is>
+      </c>
+      <c r="B29" s="16" t="n">
+        <v>98</v>
+      </c>
+      <c r="C29" s="16" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="D29" s="16">
+        <f>COUNTIFS(Modules_Per_Session,"&gt;=3",Modules_Per_Session,"&lt;=5")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="15" t="inlineStr">
+        <is>
+          <t>6+ Modules</t>
+        </is>
+      </c>
+      <c r="B30" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="C30" s="16" t="inlineStr">
+        <is>
+          <t>14.4%</t>
+        </is>
+      </c>
+      <c r="D30" s="16">
+        <f>COUNTIFS(Modules_Per_Session,"&gt;=6")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="inlineStr">
+        <is>
+          <t>Total with Engagement Data</t>
+        </is>
+      </c>
+      <c r="B31" s="16" t="n">
+        <v>272</v>
+      </c>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D31" s="16">
+        <f>COUNTA(August!E:E)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>NOTES &amp; DEFINITIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="14" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="B36" s="14" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="C36" s="14" t="inlineStr">
+        <is>
+          <t>Data Source</t>
+        </is>
+      </c>
+      <c r="D36" s="14" t="inlineStr">
+        <is>
+          <t>Calculation Method</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="inlineStr">
+        <is>
+          <t>VWE</t>
+        </is>
+      </c>
+      <c r="B37" s="16" t="inlineStr">
+        <is>
+          <t>Virtual Work Experience modules</t>
+        </is>
+      </c>
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>Column K in August sheet</t>
+        </is>
+      </c>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>Direct average of numeric values</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="15" t="inlineStr">
+        <is>
+          <t>Industry Modules</t>
+        </is>
+      </c>
+      <c r="B38" s="16" t="inlineStr">
+        <is>
+          <t>Industry preference selections</t>
+        </is>
+      </c>
+      <c r="C38" s="16" t="inlineStr">
+        <is>
+          <t>Column J in August sheet</t>
+        </is>
+      </c>
+      <c r="D38" s="16" t="inlineStr">
+        <is>
+          <t>Count of pipe-separated values</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="inlineStr">
+        <is>
+          <t>Modules per Session</t>
+        </is>
+      </c>
+      <c r="B39" s="16" t="inlineStr">
+        <is>
+          <t>Engagement types per web session</t>
+        </is>
+      </c>
+      <c r="C39" s="16" t="inlineStr">
+        <is>
+          <t>Person tag + Web sessions</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>Engagement count ÷ Session count</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="inlineStr">
+        <is>
+          <t>Web Sessions</t>
+        </is>
+      </c>
+      <c r="B40" s="16" t="inlineStr">
+        <is>
+          <t>Number of web sessions per student</t>
+        </is>
+      </c>
+      <c r="C40" s="16" t="inlineStr">
+        <is>
+          <t>Column C in August sheet</t>
+        </is>
+      </c>
+      <c r="D40" s="16" t="inlineStr">
+        <is>
+          <t>Direct count from data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/August_Export_SD_2_Sept_updated.xlsx
+++ b/August_Export_SD_2_Sept_updated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet7" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_With_Formulas" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="July_August_Email_Comparison" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,8 +77,20 @@
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -120,6 +133,24 @@
         <bgColor rgb="00E7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -139,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -164,6 +195,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -43084,7 +43128,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
@@ -43183,8 +43226,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
@@ -43309,7 +43350,6 @@
         <v/>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="A18" s="13" t="inlineStr">
         <is>
@@ -43415,8 +43455,6 @@
         <v/>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
     <row r="26">
       <c r="A26" s="13" t="inlineStr">
         <is>
@@ -43522,9 +43560,6 @@
         <v/>
       </c>
     </row>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
     <row r="35">
       <c r="A35" s="17" t="inlineStr">
         <is>
@@ -43652,4 +43687,9135 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>JULY-AUGUST EMAIL COMPARISON - EXISTING USERS ACTIVITY ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="18" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>First Name (July)</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
+        <is>
+          <t>First Name (August)</t>
+        </is>
+      </c>
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>July Login Count</t>
+        </is>
+      </c>
+      <c r="E3" s="18" t="inlineStr">
+        <is>
+          <t>August Web Sessions</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
+        <is>
+          <t>Login Increase</t>
+        </is>
+      </c>
+      <c r="G3" s="18" t="inlineStr">
+        <is>
+          <t>July Avg Login Time</t>
+        </is>
+      </c>
+      <c r="H3" s="18" t="inlineStr">
+        <is>
+          <t>August Avg Login Time</t>
+        </is>
+      </c>
+      <c r="I3" s="18" t="inlineStr">
+        <is>
+          <t>Time Increase (seconds)</t>
+        </is>
+      </c>
+      <c r="J3" s="18" t="inlineStr">
+        <is>
+          <t>July VWE</t>
+        </is>
+      </c>
+      <c r="K3" s="18" t="inlineStr">
+        <is>
+          <t>August VWE</t>
+        </is>
+      </c>
+      <c r="L3" s="18" t="inlineStr">
+        <is>
+          <t>VWE Increase</t>
+        </is>
+      </c>
+      <c r="M3" s="18" t="inlineStr">
+        <is>
+          <t>July Person Tag</t>
+        </is>
+      </c>
+      <c r="N3" s="18" t="inlineStr">
+        <is>
+          <t>August Person Tag</t>
+        </is>
+      </c>
+      <c r="O3" s="18" t="inlineStr">
+        <is>
+          <t>July Industries</t>
+        </is>
+      </c>
+      <c r="P3" s="18" t="inlineStr">
+        <is>
+          <t>August Industries</t>
+        </is>
+      </c>
+      <c r="Q3" s="18" t="inlineStr">
+        <is>
+          <t>Career Profiling Flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="inlineStr">
+        <is>
+          <t>kban0301@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B4" s="19" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="C4" s="19" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="D4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N4" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O4" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|27|28|</t>
+        </is>
+      </c>
+      <c r="P4" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|27|37|42|15|</t>
+        </is>
+      </c>
+      <c r="Q4" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="inlineStr">
+        <is>
+          <t>ksue7046@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B5" s="19" t="inlineStr">
+        <is>
+          <t>Keziah</t>
+        </is>
+      </c>
+      <c r="C5" s="19" t="inlineStr">
+        <is>
+          <t>Keziah</t>
+        </is>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>2856</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>2856</v>
+      </c>
+      <c r="I5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,17 Engaged,Job Suggestions,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N5" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,17 Engaged,Job Suggestions,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O5" s="19" t="inlineStr">
+        <is>
+          <t>'|35|17|13|8|42|</t>
+        </is>
+      </c>
+      <c r="P5" s="19" t="inlineStr">
+        <is>
+          <t>'|35|17|13|8|42|</t>
+        </is>
+      </c>
+      <c r="Q5" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="inlineStr">
+        <is>
+          <t>avar0029@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B6" s="19" t="inlineStr">
+        <is>
+          <t>Alaukika</t>
+        </is>
+      </c>
+      <c r="C6" s="19" t="inlineStr">
+        <is>
+          <t>Alaukika</t>
+        </is>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>1590</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>1519</v>
+      </c>
+      <c r="J6" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>"28 Engaged,Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="N6" s="19" t="inlineStr">
+        <is>
+          <t>"28 Engaged,Career Profiling Engaged,Career Profiling Engaged,28 Engaged,14 Engaged,8 Engaged,VWE Engaged,Resume Builder Engaged,MG Engaged,MG Trading Analyst VWE"</t>
+        </is>
+      </c>
+      <c r="O6" s="19" t="inlineStr">
+        <is>
+          <t>'|14|13|28|27|</t>
+        </is>
+      </c>
+      <c r="P6" s="19" t="inlineStr">
+        <is>
+          <t>'|14|13|28|27|</t>
+        </is>
+      </c>
+      <c r="Q6" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="inlineStr">
+        <is>
+          <t>ssin0398@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Sanchit</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Sanchit</t>
+        </is>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N7" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O7" s="19" t="inlineStr">
+        <is>
+          <t>'|14|13|28|27|</t>
+        </is>
+      </c>
+      <c r="P7" s="19" t="inlineStr">
+        <is>
+          <t>'|14|13|28|27|</t>
+        </is>
+      </c>
+      <c r="Q7" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="inlineStr">
+        <is>
+          <t>zhqi0036@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>Zhendi</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>Zhendi</t>
+        </is>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N8" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O8" s="19" t="inlineStr">
+        <is>
+          <t>'|28|8|12|</t>
+        </is>
+      </c>
+      <c r="P8" s="19" t="inlineStr">
+        <is>
+          <t>'|28|8|12|</t>
+        </is>
+      </c>
+      <c r="Q8" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="inlineStr">
+        <is>
+          <t>yiwu7015@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,14 Engaged,8 Engaged,VWE Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N9" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,14 Engaged,8 Engaged,VWE Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O9" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|25|</t>
+        </is>
+      </c>
+      <c r="P9" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|25|</t>
+        </is>
+      </c>
+      <c r="Q9" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="inlineStr">
+        <is>
+          <t>asin0208@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>Aryaman</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>Aryaman</t>
+        </is>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>1542</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>1897</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>355</v>
+      </c>
+      <c r="J10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,15 Engaged,VWE Engaged,26 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N10" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,15 Engaged,VWE Engaged,26 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O10" s="19" t="inlineStr">
+        <is>
+          <t>'|14|7|5|15|17|28|42|</t>
+        </is>
+      </c>
+      <c r="P10" s="19" t="inlineStr">
+        <is>
+          <t>'|14|7|5|15|17|28|42|</t>
+        </is>
+      </c>
+      <c r="Q10" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="inlineStr">
+        <is>
+          <t>jzhe0224@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="D11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N11" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O11" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|1|8|12|13|</t>
+        </is>
+      </c>
+      <c r="P11" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|1|8|12|13|</t>
+        </is>
+      </c>
+      <c r="Q11" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="inlineStr">
+        <is>
+          <t>elai0072@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="D12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>211</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>211</v>
+      </c>
+      <c r="I12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N12" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O12" s="19" t="inlineStr">
+        <is>
+          <t>'|14|14|</t>
+        </is>
+      </c>
+      <c r="P12" s="19" t="inlineStr">
+        <is>
+          <t>'|14|14|</t>
+        </is>
+      </c>
+      <c r="Q12" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="inlineStr">
+        <is>
+          <t>akaw0307@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Aina</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Aina</t>
+        </is>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>585</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>514</v>
+      </c>
+      <c r="J13" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K13" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Job Suggestions,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N13" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Job Suggestions,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O13" s="19" t="inlineStr">
+        <is>
+          <t>'|14|26|</t>
+        </is>
+      </c>
+      <c r="P13" s="19" t="inlineStr">
+        <is>
+          <t>'|14|26|</t>
+        </is>
+      </c>
+      <c r="Q13" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="inlineStr">
+        <is>
+          <t>wlab0013@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Wasiur</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Wasiur</t>
+        </is>
+      </c>
+      <c r="D14" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N14" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O14" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|16|25|</t>
+        </is>
+      </c>
+      <c r="P14" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|16|25|</t>
+        </is>
+      </c>
+      <c r="Q14" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="inlineStr">
+        <is>
+          <t>meff0906@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="D15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="I15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N15" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O15" s="19" t="inlineStr">
+        <is>
+          <t>'|8|15|14|</t>
+        </is>
+      </c>
+      <c r="P15" s="19" t="inlineStr">
+        <is>
+          <t>'|8|15|14|</t>
+        </is>
+      </c>
+      <c r="Q15" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="inlineStr">
+        <is>
+          <t>nkha0356@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Noel</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Noel</t>
+        </is>
+      </c>
+      <c r="D16" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>2918</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>4147</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>1229</v>
+      </c>
+      <c r="J16" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,ePortfolio Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N16" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,ePortfolio Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O16" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|27|28|</t>
+        </is>
+      </c>
+      <c r="P16" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|27|28|</t>
+        </is>
+      </c>
+      <c r="Q16" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="inlineStr">
+        <is>
+          <t>wnas0089@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Winayu</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Winayu</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
+        <is>
+          <t>"VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N17" s="19" t="inlineStr">
+        <is>
+          <t>"VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O17" s="19" t="inlineStr">
+        <is>
+          <t>'|14|9|6|23|28|</t>
+        </is>
+      </c>
+      <c r="P17" s="19" t="inlineStr">
+        <is>
+          <t>'|14|9|6|23|28|</t>
+        </is>
+      </c>
+      <c r="Q17" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="inlineStr">
+        <is>
+          <t>bvar9733@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="D18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I18" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K18" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,SFC Engaged,14 Engaged,34 Engaged,SFC Pilot Instructor GT,23 Engaged"</t>
+        </is>
+      </c>
+      <c r="N18" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,SFC Engaged,14 Engaged,34 Engaged,SFC Pilot Instructor GT,23 Engaged"</t>
+        </is>
+      </c>
+      <c r="O18" s="19" t="inlineStr">
+        <is>
+          <t>'|14|23|27|</t>
+        </is>
+      </c>
+      <c r="P18" s="19" t="inlineStr">
+        <is>
+          <t>'|14|23|27|</t>
+        </is>
+      </c>
+      <c r="Q18" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="inlineStr">
+        <is>
+          <t>tzha0424@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Tairan</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Tairan</t>
+        </is>
+      </c>
+      <c r="D19" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,MAU_2025JUL,Video Profiling 10,Video Profiling 15,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N19" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,MAU_2025JUL,Video Profiling 10,Video Profiling 15,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O19" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="P19" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="Q19" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="inlineStr">
+        <is>
+          <t>yhua0320@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B20" s="19" t="inlineStr">
+        <is>
+          <t>YUN-CHEN</t>
+        </is>
+      </c>
+      <c r="C20" s="19" t="inlineStr">
+        <is>
+          <t>YUN-CHEN</t>
+        </is>
+      </c>
+      <c r="D20" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>109</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>38</v>
+      </c>
+      <c r="J20" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N20" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O20" s="19" t="inlineStr">
+        <is>
+          <t>'|12|14|28|21|15|8|</t>
+        </is>
+      </c>
+      <c r="P20" s="19" t="inlineStr">
+        <is>
+          <t>'|12|14|28|21|15|8|</t>
+        </is>
+      </c>
+      <c r="Q20" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="inlineStr">
+        <is>
+          <t>uada0760@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Adari</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>Adari</t>
+        </is>
+      </c>
+      <c r="D21" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <v>401</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>401</v>
+      </c>
+      <c r="I21" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N21" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O21" s="19" t="inlineStr">
+        <is>
+          <t>'|13|14|15|28|2|34|</t>
+        </is>
+      </c>
+      <c r="P21" s="19" t="inlineStr">
+        <is>
+          <t>'|13|14|15|28|2|34|</t>
+        </is>
+      </c>
+      <c r="Q21" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="inlineStr">
+        <is>
+          <t>haff0869@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>Huabiao</t>
+        </is>
+      </c>
+      <c r="C22" s="19" t="inlineStr">
+        <is>
+          <t>Huabiao</t>
+        </is>
+      </c>
+      <c r="D22" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19" t="n">
+        <v>1513</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>1513</v>
+      </c>
+      <c r="I22" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
+        <is>
+          <t>"Resume Builder Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N22" s="19" t="inlineStr">
+        <is>
+          <t>"Resume Builder Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O22" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="P22" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="Q22" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="inlineStr">
+        <is>
+          <t>djay0399@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>Shakyani</t>
+        </is>
+      </c>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Shakyani</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H23" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling,MAU_2025JUN,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N23" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling,MAU_2025JUN,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O23" s="19" t="inlineStr">
+        <is>
+          <t>'|10|14|15|17|18|16|26|27|30|35|28|</t>
+        </is>
+      </c>
+      <c r="P23" s="19" t="inlineStr">
+        <is>
+          <t>'|10|14|15|17|18|16|26|27|30|35|28|</t>
+        </is>
+      </c>
+      <c r="Q23" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="19" t="inlineStr">
+        <is>
+          <t>yzho0933@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>Yunyi</t>
+        </is>
+      </c>
+      <c r="C24" s="19" t="inlineStr">
+        <is>
+          <t>Yunyi</t>
+        </is>
+      </c>
+      <c r="D24" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="I24" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N24" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O24" s="19" t="inlineStr">
+        <is>
+          <t>'|14|8|</t>
+        </is>
+      </c>
+      <c r="P24" s="19" t="inlineStr">
+        <is>
+          <t>'|14|8|</t>
+        </is>
+      </c>
+      <c r="Q24" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="inlineStr">
+        <is>
+          <t>reva0301@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B25" s="19" t="inlineStr">
+        <is>
+          <t>Revathy</t>
+        </is>
+      </c>
+      <c r="C25" s="19" t="inlineStr">
+        <is>
+          <t>Revathy</t>
+        </is>
+      </c>
+      <c r="D25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J25" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L25" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M25" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N25" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O25" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P25" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q25" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="inlineStr">
+        <is>
+          <t>kdin3505@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B26" s="19" t="inlineStr">
+        <is>
+          <t>Cadence</t>
+        </is>
+      </c>
+      <c r="C26" s="19" t="inlineStr">
+        <is>
+          <t>Cadence</t>
+        </is>
+      </c>
+      <c r="D26" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H26" s="19" t="n">
+        <v>541</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>470</v>
+      </c>
+      <c r="J26" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N26" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O26" s="19" t="inlineStr">
+        <is>
+          <t>'|1|8|14|28|27|</t>
+        </is>
+      </c>
+      <c r="P26" s="19" t="inlineStr">
+        <is>
+          <t>'|1|8|14|28|27|</t>
+        </is>
+      </c>
+      <c r="Q26" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="inlineStr">
+        <is>
+          <t>mros0153@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Matilda</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Matilda</t>
+        </is>
+      </c>
+      <c r="D27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H27" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I27" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N27" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O27" s="19" t="inlineStr">
+        <is>
+          <t>'|3|4|27|</t>
+        </is>
+      </c>
+      <c r="P27" s="19" t="inlineStr">
+        <is>
+          <t>'|3|4|27|</t>
+        </is>
+      </c>
+      <c r="Q27" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="inlineStr">
+        <is>
+          <t>rana0829@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>Rithul</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>Rithul</t>
+        </is>
+      </c>
+      <c r="D28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H28" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I28" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K28" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L28" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M28" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N28" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O28" s="19" t="inlineStr">
+        <is>
+          <t>'|14|15|28|27|</t>
+        </is>
+      </c>
+      <c r="P28" s="19" t="inlineStr">
+        <is>
+          <t>'|14|15|28|27|</t>
+        </is>
+      </c>
+      <c r="Q28" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="inlineStr">
+        <is>
+          <t>xdin0238@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>Edgar</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>Edgar</t>
+        </is>
+      </c>
+      <c r="D29" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H29" s="19" t="n">
+        <v>417</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>276</v>
+      </c>
+      <c r="J29" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L29" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N29" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O29" s="19" t="inlineStr">
+        <is>
+          <t>'|9|14|</t>
+        </is>
+      </c>
+      <c r="P29" s="19" t="inlineStr">
+        <is>
+          <t>'|9|14|</t>
+        </is>
+      </c>
+      <c r="Q29" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="inlineStr">
+        <is>
+          <t>xwan0917@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Xuyue</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Xuyue</t>
+        </is>
+      </c>
+      <c r="D30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>31815</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>31815</v>
+      </c>
+      <c r="I30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,14 Engaged,VWE Engaged,ePortfolio Engaged,Video Profiling,7 Engaged"</t>
+        </is>
+      </c>
+      <c r="N30" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,14 Engaged,VWE Engaged,ePortfolio Engaged,Video Profiling,7 Engaged"</t>
+        </is>
+      </c>
+      <c r="O30" s="19" t="inlineStr">
+        <is>
+          <t>'|7|11|14|13|34|</t>
+        </is>
+      </c>
+      <c r="P30" s="19" t="inlineStr">
+        <is>
+          <t>'|7|11|14|13|34|</t>
+        </is>
+      </c>
+      <c r="Q30" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="inlineStr">
+        <is>
+          <t>mald0954@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="D31" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H31" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K31" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L31" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M31" s="19" t="inlineStr">
+        <is>
+          <t>"14 Engaged,MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N31" s="19" t="inlineStr">
+        <is>
+          <t>"14 Engaged,MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O31" s="19" t="inlineStr">
+        <is>
+          <t>'|1|2|3|4|5|6|7|8|9|10|</t>
+        </is>
+      </c>
+      <c r="P31" s="19" t="inlineStr">
+        <is>
+          <t>'|1|2|3|4|5|6|7|8|9|10|</t>
+        </is>
+      </c>
+      <c r="Q31" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="19" t="inlineStr">
+        <is>
+          <t>zras0872@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B32" s="19" t="inlineStr">
+        <is>
+          <t>Zainish</t>
+        </is>
+      </c>
+      <c r="C32" s="19" t="inlineStr">
+        <is>
+          <t>Zainish</t>
+        </is>
+      </c>
+      <c r="D32" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H32" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="I32" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N32" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O32" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|</t>
+        </is>
+      </c>
+      <c r="P32" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|</t>
+        </is>
+      </c>
+      <c r="Q32" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="19" t="inlineStr">
+        <is>
+          <t>chli0464@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B33" s="19" t="inlineStr">
+        <is>
+          <t>Christy</t>
+        </is>
+      </c>
+      <c r="C33" s="19" t="inlineStr">
+        <is>
+          <t>Christy</t>
+        </is>
+      </c>
+      <c r="D33" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I33" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,28 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N33" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,28 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O33" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|</t>
+        </is>
+      </c>
+      <c r="P33" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|</t>
+        </is>
+      </c>
+      <c r="Q33" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="19" t="inlineStr">
+        <is>
+          <t>dsha0767@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B34" s="19" t="inlineStr">
+        <is>
+          <t>Dvij</t>
+        </is>
+      </c>
+      <c r="C34" s="19" t="inlineStr">
+        <is>
+          <t>Dvij</t>
+        </is>
+      </c>
+      <c r="D34" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="19" t="n">
+        <v>439</v>
+      </c>
+      <c r="H34" s="19" t="n">
+        <v>4629</v>
+      </c>
+      <c r="I34" s="21" t="n">
+        <v>4190</v>
+      </c>
+      <c r="J34" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ST Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N34" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ST Engaged,Video Profiling,VWE Engaged,"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,17 Engaged,28 Engaged,NSWM AI VWE,VWE Engaged,ST Engaged,27 Engaged,NSWM Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O34" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|27|</t>
+        </is>
+      </c>
+      <c r="P34" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|27|</t>
+        </is>
+      </c>
+      <c r="Q34" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="19" t="inlineStr">
+        <is>
+          <t>pvha0335@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B35" s="19" t="inlineStr">
+        <is>
+          <t>Prachi</t>
+        </is>
+      </c>
+      <c r="C35" s="19" t="inlineStr">
+        <is>
+          <t>Prachi</t>
+        </is>
+      </c>
+      <c r="D35" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19" t="n">
+        <v>1474</v>
+      </c>
+      <c r="H35" s="19" t="n">
+        <v>1256</v>
+      </c>
+      <c r="I35" s="22" t="n">
+        <v>-218</v>
+      </c>
+      <c r="J35" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Video Profiling 10,Video Profiling 15,14 Engaged,Resume Builder Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N35" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Video Profiling 10,Video Profiling 15,14 Engaged,Resume Builder Engaged,Video Profiling,VWE Engaged,"Video Profiling 5,Career Profiling Engaged,Video Profiling 10,Video Profiling 15,14 Engaged,Resume Builder Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O35" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P35" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q35" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="inlineStr">
+        <is>
+          <t>ywan0706@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B36" s="19" t="inlineStr">
+        <is>
+          <t>yanyang</t>
+        </is>
+      </c>
+      <c r="C36" s="19" t="inlineStr">
+        <is>
+          <t>yanyang</t>
+        </is>
+      </c>
+      <c r="D36" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H36" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="19" t="inlineStr">
+        <is>
+          <t>"14 Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N36" s="19" t="inlineStr">
+        <is>
+          <t>"14 Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O36" s="19" t="inlineStr">
+        <is>
+          <t>'|14|23|27|12|</t>
+        </is>
+      </c>
+      <c r="P36" s="19" t="inlineStr">
+        <is>
+          <t>'|14|23|27|12|</t>
+        </is>
+      </c>
+      <c r="Q36" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="19" t="inlineStr">
+        <is>
+          <t>spri0833@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B37" s="19" t="inlineStr">
+        <is>
+          <t>Sharine</t>
+        </is>
+      </c>
+      <c r="C37" s="19" t="inlineStr">
+        <is>
+          <t>Sharine</t>
+        </is>
+      </c>
+      <c r="D37" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I37" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J37" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K37" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L37" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M37" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N37" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O37" s="19" t="inlineStr">
+        <is>
+          <t>'|3|4|27|</t>
+        </is>
+      </c>
+      <c r="P37" s="19" t="inlineStr">
+        <is>
+          <t>'|3|4|27|</t>
+        </is>
+      </c>
+      <c r="Q37" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="19" t="inlineStr">
+        <is>
+          <t>ccha0660@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B38" s="19" t="inlineStr">
+        <is>
+          <t>Chiedza</t>
+        </is>
+      </c>
+      <c r="C38" s="19" t="inlineStr">
+        <is>
+          <t>Chiedza</t>
+        </is>
+      </c>
+      <c r="D38" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H38" s="19" t="n">
+        <v>2934</v>
+      </c>
+      <c r="I38" s="21" t="n">
+        <v>2863</v>
+      </c>
+      <c r="J38" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K38" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M38" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ST Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N38" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ST Engaged,Video Profiling Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ST Engaged,Resume Builder Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O38" s="19" t="inlineStr">
+        <is>
+          <t>'|11|14|15|17|23|27|28|22|</t>
+        </is>
+      </c>
+      <c r="P38" s="19" t="inlineStr">
+        <is>
+          <t>'|11|14|15|17|23|27|28|22|</t>
+        </is>
+      </c>
+      <c r="Q38" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="19" t="inlineStr">
+        <is>
+          <t>vasu0930@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B39" s="19" t="inlineStr">
+        <is>
+          <t>Vito</t>
+        </is>
+      </c>
+      <c r="C39" s="19" t="inlineStr">
+        <is>
+          <t>Vito</t>
+        </is>
+      </c>
+      <c r="D39" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="19" t="n">
+        <v>29798</v>
+      </c>
+      <c r="H39" s="19" t="n">
+        <v>29798</v>
+      </c>
+      <c r="I39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,VWE Engaged,Resume Builder Engaged,14 Engaged"</t>
+        </is>
+      </c>
+      <c r="N39" s="19" t="inlineStr">
+        <is>
+          <t>"14 Engaged,Resume Builder Engaged,VWE Engaged,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1"</t>
+        </is>
+      </c>
+      <c r="O39" s="19" t="inlineStr">
+        <is>
+          <t>'|14|15|12|27|28|</t>
+        </is>
+      </c>
+      <c r="P39" s="19" t="inlineStr">
+        <is>
+          <t>'|14|15|12|27|28|</t>
+        </is>
+      </c>
+      <c r="Q39" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="19" t="inlineStr">
+        <is>
+          <t>jwil0808@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B40" s="19" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="C40" s="19" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="D40" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H40" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N40" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O40" s="19" t="inlineStr">
+        <is>
+          <t>'|14|19|22|23|27|</t>
+        </is>
+      </c>
+      <c r="P40" s="19" t="inlineStr">
+        <is>
+          <t>'|14|19|22|23|27|</t>
+        </is>
+      </c>
+      <c r="Q40" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="19" t="inlineStr">
+        <is>
+          <t>yuhu0189@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B41" s="19" t="inlineStr">
+        <is>
+          <t>YUXIN</t>
+        </is>
+      </c>
+      <c r="C41" s="19" t="inlineStr">
+        <is>
+          <t>YUXIN</t>
+        </is>
+      </c>
+      <c r="D41" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H41" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19" t="inlineStr">
+        <is>
+          <t>"VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N41" s="19" t="inlineStr">
+        <is>
+          <t>"VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O41" s="19" t="inlineStr">
+        <is>
+          <t>'|8|10|12|28|34|30|</t>
+        </is>
+      </c>
+      <c r="P41" s="19" t="inlineStr">
+        <is>
+          <t>'|8|10|12|28|34|30|</t>
+        </is>
+      </c>
+      <c r="Q41" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="19" t="inlineStr">
+        <is>
+          <t>ezho0358@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B42" s="19" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C42" s="19" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D42" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H42" s="19" t="n">
+        <v>228</v>
+      </c>
+      <c r="I42" s="21" t="n">
+        <v>157</v>
+      </c>
+      <c r="J42" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,14 Engaged,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N42" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,14 Engaged,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O42" s="19" t="inlineStr">
+        <is>
+          <t>'|14|5|11|27|42|</t>
+        </is>
+      </c>
+      <c r="P42" s="19" t="inlineStr">
+        <is>
+          <t>'|14|5|11|27|42|</t>
+        </is>
+      </c>
+      <c r="Q42" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="19" t="inlineStr">
+        <is>
+          <t>naan0956@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B43" s="19" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="C43" s="19" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D43" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="19" t="n">
+        <v>753</v>
+      </c>
+      <c r="H43" s="19" t="n">
+        <v>753</v>
+      </c>
+      <c r="I43" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N43" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O43" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|27|</t>
+        </is>
+      </c>
+      <c r="P43" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|27|</t>
+        </is>
+      </c>
+      <c r="Q43" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="19" t="inlineStr">
+        <is>
+          <t>hiso0078@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B44" s="19" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="C44" s="19" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="D44" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I44" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J44" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K44" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L44" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M44" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N44" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O44" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q44" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="19" t="inlineStr">
+        <is>
+          <t>hali0131@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B45" s="19" t="inlineStr">
+        <is>
+          <t>Hayden</t>
+        </is>
+      </c>
+      <c r="C45" s="19" t="inlineStr">
+        <is>
+          <t>Hayden</t>
+        </is>
+      </c>
+      <c r="D45" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H45" s="19" t="n">
+        <v>401</v>
+      </c>
+      <c r="I45" s="21" t="n">
+        <v>260</v>
+      </c>
+      <c r="J45" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K45" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L45" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N45" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O45" s="19" t="inlineStr">
+        <is>
+          <t>'|2|14|23|27|</t>
+        </is>
+      </c>
+      <c r="P45" s="19" t="inlineStr">
+        <is>
+          <t>'|2|14|23|27|</t>
+        </is>
+      </c>
+      <c r="Q45" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="19" t="inlineStr">
+        <is>
+          <t>kcon0192@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B46" s="19" t="inlineStr">
+        <is>
+          <t>Kristen</t>
+        </is>
+      </c>
+      <c r="C46" s="19" t="inlineStr">
+        <is>
+          <t>Kristen</t>
+        </is>
+      </c>
+      <c r="D46" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19" t="n">
+        <v>388</v>
+      </c>
+      <c r="H46" s="19" t="n">
+        <v>388</v>
+      </c>
+      <c r="I46" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,15 Engaged,VWE Engaged,28 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N46" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,15 Engaged,VWE Engaged,28 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O46" s="19" t="inlineStr">
+        <is>
+          <t>'|28|15|</t>
+        </is>
+      </c>
+      <c r="P46" s="19" t="inlineStr">
+        <is>
+          <t>'|28|15|</t>
+        </is>
+      </c>
+      <c r="Q46" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="19" t="inlineStr">
+        <is>
+          <t>andr3804@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B47" s="19" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="C47" s="19" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="D47" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H47" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I47" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,28 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N47" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged,28 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O47" s="19" t="inlineStr">
+        <is>
+          <t>'|8|12|14|15|28|27|</t>
+        </is>
+      </c>
+      <c r="P47" s="19" t="inlineStr">
+        <is>
+          <t>'|8|12|14|15|28|27|</t>
+        </is>
+      </c>
+      <c r="Q47" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="19" t="inlineStr">
+        <is>
+          <t>fzha0276@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B48" s="19" t="inlineStr">
+        <is>
+          <t>Fanqi</t>
+        </is>
+      </c>
+      <c r="C48" s="19" t="inlineStr">
+        <is>
+          <t>Fanqi</t>
+        </is>
+      </c>
+      <c r="D48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H48" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I48" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N48" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O48" s="19" t="inlineStr">
+        <is>
+          <t>'|14|17|27|28|42|2|3|8|12|</t>
+        </is>
+      </c>
+      <c r="P48" s="19" t="inlineStr">
+        <is>
+          <t>'|14|17|27|28|42|2|3|8|12|</t>
+        </is>
+      </c>
+      <c r="Q48" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="19" t="inlineStr">
+        <is>
+          <t>djag0867@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B49" s="19" t="inlineStr">
+        <is>
+          <t>Danidu</t>
+        </is>
+      </c>
+      <c r="C49" s="19" t="inlineStr">
+        <is>
+          <t>Danidu</t>
+        </is>
+      </c>
+      <c r="D49" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="19" t="n">
+        <v>108</v>
+      </c>
+      <c r="H49" s="19" t="n">
+        <v>108</v>
+      </c>
+      <c r="I49" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N49" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O49" s="19" t="inlineStr">
+        <is>
+          <t>'|14|16|22|30|7|</t>
+        </is>
+      </c>
+      <c r="P49" s="19" t="inlineStr">
+        <is>
+          <t>'|14|16|22|30|7|</t>
+        </is>
+      </c>
+      <c r="Q49" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="19" t="inlineStr">
+        <is>
+          <t>wema0811@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B50" s="19" t="inlineStr">
+        <is>
+          <t>Wenxi</t>
+        </is>
+      </c>
+      <c r="C50" s="19" t="inlineStr">
+        <is>
+          <t>Wenxi</t>
+        </is>
+      </c>
+      <c r="D50" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I50" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J50" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N50" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O50" s="19" t="inlineStr">
+        <is>
+          <t>'|30|28|27|</t>
+        </is>
+      </c>
+      <c r="P50" s="19" t="inlineStr">
+        <is>
+          <t>'|30|28|27|</t>
+        </is>
+      </c>
+      <c r="Q50" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="19" t="inlineStr">
+        <is>
+          <t>jlee0194@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B51" s="19" t="inlineStr">
+        <is>
+          <t>Jiwon</t>
+        </is>
+      </c>
+      <c r="C51" s="19" t="inlineStr">
+        <is>
+          <t>Jiwon</t>
+        </is>
+      </c>
+      <c r="D51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H51" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N51" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O51" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P51" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q51" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="19" t="inlineStr">
+        <is>
+          <t>gcha0596@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B52" s="19" t="inlineStr">
+        <is>
+          <t>Gourab</t>
+        </is>
+      </c>
+      <c r="C52" s="19" t="inlineStr">
+        <is>
+          <t>Gourab</t>
+        </is>
+      </c>
+      <c r="D52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="19" t="n">
+        <v>8023</v>
+      </c>
+      <c r="H52" s="19" t="n">
+        <v>8023</v>
+      </c>
+      <c r="I52" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Job Suggestions,VWE Engaged,Resume Builder Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N52" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Job Suggestions,VWE Engaged,Resume Builder Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O52" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|12|</t>
+        </is>
+      </c>
+      <c r="P52" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|12|</t>
+        </is>
+      </c>
+      <c r="Q52" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="19" t="inlineStr">
+        <is>
+          <t>swan0244@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B53" s="19" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="C53" s="19" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="D53" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="19" t="n">
+        <v>3010</v>
+      </c>
+      <c r="H53" s="19" t="n">
+        <v>3010</v>
+      </c>
+      <c r="I53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,MAU_2025JUL,Video Profiling 10,Video Profiling 15,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N53" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,MAU_2025JUL,Video Profiling 10,Video Profiling 15,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O53" s="19" t="inlineStr">
+        <is>
+          <t>'|1|14|33|35|3|10|16|17|21|</t>
+        </is>
+      </c>
+      <c r="P53" s="19" t="inlineStr">
+        <is>
+          <t>'|1|14|33|35|3|10|16|17|21|</t>
+        </is>
+      </c>
+      <c r="Q53" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>sche0542@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B54" s="19" t="inlineStr">
+        <is>
+          <t>Sirui</t>
+        </is>
+      </c>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>Sirui</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H54" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K54" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L54" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M54" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N54" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O54" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|27|</t>
+        </is>
+      </c>
+      <c r="P54" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|27|</t>
+        </is>
+      </c>
+      <c r="Q54" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="19" t="inlineStr">
+        <is>
+          <t>lfar0911@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B55" s="19" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="C55" s="19" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="D55" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="19" t="n">
+        <v>2262</v>
+      </c>
+      <c r="H55" s="19" t="n">
+        <v>2262</v>
+      </c>
+      <c r="I55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>"15 Engaged,12 Engaged,MG Engaged,30 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N55" s="19" t="inlineStr">
+        <is>
+          <t>"15 Engaged,12 Engaged,MG Engaged,30 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O55" s="19" t="inlineStr">
+        <is>
+          <t>'|1|8|12|15|42|</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>'|1|8|12|15|42|</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="19" t="inlineStr">
+        <is>
+          <t>mtsu0527@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B56" s="19" t="inlineStr">
+        <is>
+          <t>Mayu</t>
+        </is>
+      </c>
+      <c r="C56" s="19" t="inlineStr">
+        <is>
+          <t>Mayu</t>
+        </is>
+      </c>
+      <c r="D56" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H56" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I56" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N56" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O56" s="19" t="inlineStr">
+        <is>
+          <t>'|14|19|27|28|12|17|23|</t>
+        </is>
+      </c>
+      <c r="P56" s="19" t="inlineStr">
+        <is>
+          <t>'|14|19|27|28|12|17|23|</t>
+        </is>
+      </c>
+      <c r="Q56" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="19" t="inlineStr">
+        <is>
+          <t>mala0565@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B57" s="19" t="inlineStr">
+        <is>
+          <t>Mohammad</t>
+        </is>
+      </c>
+      <c r="C57" s="19" t="inlineStr">
+        <is>
+          <t>Mohammad</t>
+        </is>
+      </c>
+      <c r="D57" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="19" t="n">
+        <v>502</v>
+      </c>
+      <c r="H57" s="19" t="n">
+        <v>502</v>
+      </c>
+      <c r="I57" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N57" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O57" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|15|</t>
+        </is>
+      </c>
+      <c r="P57" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|15|</t>
+        </is>
+      </c>
+      <c r="Q57" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="19" t="inlineStr">
+        <is>
+          <t>derd0098@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B58" s="19" t="inlineStr">
+        <is>
+          <t>Dulguun</t>
+        </is>
+      </c>
+      <c r="C58" s="19" t="inlineStr">
+        <is>
+          <t>Dulguun</t>
+        </is>
+      </c>
+      <c r="D58" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="19" t="n">
+        <v>3957</v>
+      </c>
+      <c r="H58" s="19" t="n">
+        <v>3957</v>
+      </c>
+      <c r="I58" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,15 Engaged,28 Engaged,9 Engaged,VWE Engaged,ST Engaged,Resume Builder Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N58" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,15 Engaged,28 Engaged,9 Engaged,VWE Engaged,ST Engaged,Resume Builder Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O58" s="19" t="inlineStr">
+        <is>
+          <t>'|8|9|14|28|</t>
+        </is>
+      </c>
+      <c r="P58" s="19" t="inlineStr">
+        <is>
+          <t>'|8|9|14|28|</t>
+        </is>
+      </c>
+      <c r="Q58" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="19" t="inlineStr">
+        <is>
+          <t>rwan0858@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B59" s="19" t="inlineStr">
+        <is>
+          <t>ruiting</t>
+        </is>
+      </c>
+      <c r="C59" s="19" t="inlineStr">
+        <is>
+          <t>ruiting</t>
+        </is>
+      </c>
+      <c r="D59" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="19" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H59" s="19" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I59" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,1 Engaged,28 Engaged,8 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N59" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,1 Engaged,28 Engaged,8 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O59" s="19" t="inlineStr">
+        <is>
+          <t>'|1|8|12|14|21|27|28|30|</t>
+        </is>
+      </c>
+      <c r="P59" s="19" t="inlineStr">
+        <is>
+          <t>'|1|8|12|14|21|27|28|30|</t>
+        </is>
+      </c>
+      <c r="Q59" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="19" t="inlineStr">
+        <is>
+          <t>asin0601@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B60" s="19" t="inlineStr">
+        <is>
+          <t>Arpit</t>
+        </is>
+      </c>
+      <c r="C60" s="19" t="inlineStr">
+        <is>
+          <t>Arpit</t>
+        </is>
+      </c>
+      <c r="D60" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H60" s="19" t="n">
+        <v>84</v>
+      </c>
+      <c r="I60" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N60" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O60" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P60" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q60" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="19" t="inlineStr">
+        <is>
+          <t>ychu9189@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B61" s="19" t="inlineStr">
+        <is>
+          <t>Yuree</t>
+        </is>
+      </c>
+      <c r="C61" s="19" t="inlineStr">
+        <is>
+          <t>Yuree</t>
+        </is>
+      </c>
+      <c r="D61" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H61" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I61" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N61" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O61" s="19" t="inlineStr">
+        <is>
+          <t>'|13|21|8|</t>
+        </is>
+      </c>
+      <c r="P61" s="19" t="inlineStr">
+        <is>
+          <t>'|13|21|8|</t>
+        </is>
+      </c>
+      <c r="Q61" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="19" t="inlineStr">
+        <is>
+          <t>jlin0409@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B62" s="19" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+      <c r="C62" s="19" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+      <c r="D62" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H62" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,3 Engaged,14 Engaged,VWE Engaged,ST Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N62" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,3 Engaged,14 Engaged,VWE Engaged,ST Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O62" s="19" t="inlineStr">
+        <is>
+          <t>'|3|7|13|14|24|34|</t>
+        </is>
+      </c>
+      <c r="P62" s="19" t="inlineStr">
+        <is>
+          <t>'|3|7|13|14|24|34|</t>
+        </is>
+      </c>
+      <c r="Q62" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>xzho0148@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B63" s="19" t="inlineStr">
+        <is>
+          <t>Xiang</t>
+        </is>
+      </c>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>Xiang</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H63" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,14 Engaged,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N63" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,14 Engaged,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O63" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="P63" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="Q63" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="19" t="inlineStr">
+        <is>
+          <t>ksin0894@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B64" s="19" t="inlineStr">
+        <is>
+          <t>Kanav</t>
+        </is>
+      </c>
+      <c r="C64" s="19" t="inlineStr">
+        <is>
+          <t>Kanav</t>
+        </is>
+      </c>
+      <c r="D64" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I64" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J64" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K64" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L64" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N64" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Resume Builder Engaged,MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O64" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>'|11|14|28|2|</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="19" t="inlineStr">
+        <is>
+          <t>zzho0960@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B65" s="19" t="inlineStr">
+        <is>
+          <t>Zhiwen</t>
+        </is>
+      </c>
+      <c r="C65" s="19" t="inlineStr">
+        <is>
+          <t>Zhiwen</t>
+        </is>
+      </c>
+      <c r="D65" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H65" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I65" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="N65" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="O65" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|42|27|17|</t>
+        </is>
+      </c>
+      <c r="P65" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|42|27|17|</t>
+        </is>
+      </c>
+      <c r="Q65" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="19" t="inlineStr">
+        <is>
+          <t>njar0264@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B66" s="19" t="inlineStr">
+        <is>
+          <t>Narmandakh</t>
+        </is>
+      </c>
+      <c r="C66" s="19" t="inlineStr">
+        <is>
+          <t>Narmandakh</t>
+        </is>
+      </c>
+      <c r="D66" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19" t="n">
+        <v>4874</v>
+      </c>
+      <c r="H66" s="19" t="n">
+        <v>4874</v>
+      </c>
+      <c r="I66" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N66" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O66" s="19" t="inlineStr">
+        <is>
+          <t>'|14|5|7|20|</t>
+        </is>
+      </c>
+      <c r="P66" s="19" t="inlineStr">
+        <is>
+          <t>'|14|5|7|20|</t>
+        </is>
+      </c>
+      <c r="Q66" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="19" t="inlineStr">
+        <is>
+          <t>mngu0910@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B67" s="19" t="inlineStr">
+        <is>
+          <t>Minh</t>
+        </is>
+      </c>
+      <c r="C67" s="19" t="inlineStr">
+        <is>
+          <t>Minh</t>
+        </is>
+      </c>
+      <c r="D67" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H67" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I67" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,8 Engaged,VWE Engaged,ST Engaged,Resume Builder Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N67" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,8 Engaged,VWE Engaged,ST Engaged,Resume Builder Engaged,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O67" s="19" t="inlineStr">
+        <is>
+          <t>'|1|5|7|8|11|14|</t>
+        </is>
+      </c>
+      <c r="P67" s="19" t="inlineStr">
+        <is>
+          <t>'|1|5|7|8|11|14|</t>
+        </is>
+      </c>
+      <c r="Q67" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="19" t="inlineStr">
+        <is>
+          <t>ytia0619@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B68" s="19" t="inlineStr">
+        <is>
+          <t>Tom</t>
+        </is>
+      </c>
+      <c r="C68" s="19" t="inlineStr">
+        <is>
+          <t>Tom</t>
+        </is>
+      </c>
+      <c r="D68" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H68" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I68" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N68" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O68" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P68" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q68" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="19" t="inlineStr">
+        <is>
+          <t>gcul0153@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B69" s="19" t="inlineStr">
+        <is>
+          <t>Guner</t>
+        </is>
+      </c>
+      <c r="C69" s="19" t="inlineStr">
+        <is>
+          <t>Guner</t>
+        </is>
+      </c>
+      <c r="D69" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="19" t="n">
+        <v>1644</v>
+      </c>
+      <c r="H69" s="19" t="n">
+        <v>1644</v>
+      </c>
+      <c r="I69" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K69" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L69" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M69" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N69" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O69" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|42|37|</t>
+        </is>
+      </c>
+      <c r="P69" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|42|37|</t>
+        </is>
+      </c>
+      <c r="Q69" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="19" t="inlineStr">
+        <is>
+          <t>xlin0463@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B70" s="19" t="inlineStr">
+        <is>
+          <t>Xinyuan</t>
+        </is>
+      </c>
+      <c r="C70" s="19" t="inlineStr">
+        <is>
+          <t>Xinyuan</t>
+        </is>
+      </c>
+      <c r="D70" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I70" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J70" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N70" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O70" s="19" t="inlineStr">
+        <is>
+          <t>|3|14||28|</t>
+        </is>
+      </c>
+      <c r="P70" s="19" t="inlineStr">
+        <is>
+          <t>|3|14||28|</t>
+        </is>
+      </c>
+      <c r="Q70" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="19" t="inlineStr">
+        <is>
+          <t>toye0626@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B71" s="19" t="inlineStr">
+        <is>
+          <t>Tongxin</t>
+        </is>
+      </c>
+      <c r="C71" s="19" t="inlineStr">
+        <is>
+          <t>Tongxin</t>
+        </is>
+      </c>
+      <c r="D71" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H71" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I71" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N71" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O71" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|</t>
+        </is>
+      </c>
+      <c r="P71" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|</t>
+        </is>
+      </c>
+      <c r="Q71" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="19" t="inlineStr">
+        <is>
+          <t>akhu0798@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B72" s="19" t="inlineStr">
+        <is>
+          <t>Anu-Ujin</t>
+        </is>
+      </c>
+      <c r="C72" s="19" t="inlineStr">
+        <is>
+          <t>Anu-Ujin</t>
+        </is>
+      </c>
+      <c r="D72" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="19" t="n">
+        <v>8052</v>
+      </c>
+      <c r="H72" s="19" t="n">
+        <v>8052</v>
+      </c>
+      <c r="I72" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,VWE Engaged,Job Suggestions,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N72" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,VWE Engaged,Job Suggestions,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O72" s="19" t="inlineStr">
+        <is>
+          <t>'|12|6|8|10|21|</t>
+        </is>
+      </c>
+      <c r="P72" s="19" t="inlineStr">
+        <is>
+          <t>'|12|6|8|10|21|</t>
+        </is>
+      </c>
+      <c r="Q72" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="19" t="inlineStr">
+        <is>
+          <t>zixu0905@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B73" s="19" t="inlineStr">
+        <is>
+          <t>Zihan</t>
+        </is>
+      </c>
+      <c r="C73" s="19" t="inlineStr">
+        <is>
+          <t>Zihan</t>
+        </is>
+      </c>
+      <c r="D73" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="19" t="n">
+        <v>177</v>
+      </c>
+      <c r="H73" s="19" t="n">
+        <v>177</v>
+      </c>
+      <c r="I73" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N73" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O73" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P73" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q73" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="19" t="inlineStr">
+        <is>
+          <t>jchr4402@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B74" s="19" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="C74" s="19" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D74" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="19" t="n">
+        <v>2879</v>
+      </c>
+      <c r="H74" s="19" t="n">
+        <v>2879</v>
+      </c>
+      <c r="I74" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,Job Suggestions,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N74" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,Job Suggestions,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O74" s="19" t="inlineStr">
+        <is>
+          <t>'|7|21|34|</t>
+        </is>
+      </c>
+      <c r="P74" s="19" t="inlineStr">
+        <is>
+          <t>'|7|21|34|</t>
+        </is>
+      </c>
+      <c r="Q74" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="19" t="inlineStr">
+        <is>
+          <t>jili0651@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B75" s="19" t="inlineStr">
+        <is>
+          <t>Estela</t>
+        </is>
+      </c>
+      <c r="C75" s="19" t="inlineStr">
+        <is>
+          <t>Estela</t>
+        </is>
+      </c>
+      <c r="D75" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H75" s="19" t="n">
+        <v>871</v>
+      </c>
+      <c r="I75" s="21" t="n">
+        <v>730</v>
+      </c>
+      <c r="J75" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N75" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O75" s="19" t="inlineStr">
+        <is>
+          <t>'|28|24|14|</t>
+        </is>
+      </c>
+      <c r="P75" s="19" t="inlineStr">
+        <is>
+          <t>'|28|24|14|</t>
+        </is>
+      </c>
+      <c r="Q75" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="19" t="inlineStr">
+        <is>
+          <t>wzhu0349@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B76" s="19" t="inlineStr">
+        <is>
+          <t>Wenwen</t>
+        </is>
+      </c>
+      <c r="C76" s="19" t="inlineStr">
+        <is>
+          <t>Wenwen</t>
+        </is>
+      </c>
+      <c r="D76" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I76" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J76" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K76" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L76" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M76" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N76" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O76" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P76" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q76" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="19" t="inlineStr">
+        <is>
+          <t>asve0009@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B77" s="19" t="inlineStr">
+        <is>
+          <t>Alva</t>
+        </is>
+      </c>
+      <c r="C77" s="19" t="inlineStr">
+        <is>
+          <t>Alva</t>
+        </is>
+      </c>
+      <c r="D77" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="19" t="n">
+        <v>742</v>
+      </c>
+      <c r="H77" s="19" t="n">
+        <v>742</v>
+      </c>
+      <c r="I77" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K77" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L77" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M77" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="N77" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="O77" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P77" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q77" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="19" t="inlineStr">
+        <is>
+          <t>lhan0123@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B78" s="19" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="C78" s="19" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="D78" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="19" t="n">
+        <v>17371</v>
+      </c>
+      <c r="H78" s="19" t="n">
+        <v>17371</v>
+      </c>
+      <c r="I78" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,Video Profiling 15,Job Suggestions,14 Engaged,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N78" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,Video Profiling 15,Job Suggestions,14 Engaged,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O78" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|30|</t>
+        </is>
+      </c>
+      <c r="P78" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|30|</t>
+        </is>
+      </c>
+      <c r="Q78" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="19" t="inlineStr">
+        <is>
+          <t>ashe0758@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B79" s="19" t="inlineStr">
+        <is>
+          <t>Abhyudaya</t>
+        </is>
+      </c>
+      <c r="C79" s="19" t="inlineStr">
+        <is>
+          <t>Abhyudaya</t>
+        </is>
+      </c>
+      <c r="D79" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H79" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="I79" s="21" t="n">
+        <v>249</v>
+      </c>
+      <c r="J79" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling,MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N79" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling,MAU_2025JUL,VWE Engaged,"MAU_2025JUL,28 Engaged,14 Engaged,Video Profiling,7 Engaged"</t>
+        </is>
+      </c>
+      <c r="O79" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|14|7|</t>
+        </is>
+      </c>
+      <c r="P79" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|14|7|</t>
+        </is>
+      </c>
+      <c r="Q79" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="19" t="inlineStr">
+        <is>
+          <t>aman0118@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B80" s="19" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="C80" s="19" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="D80" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="19" t="n">
+        <v>3283</v>
+      </c>
+      <c r="H80" s="19" t="n">
+        <v>3283</v>
+      </c>
+      <c r="I80" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,ST Engaged,28 Engaged,Resume Builder Engaged,ePortfolio Engaged,14 Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N80" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,ST Engaged,28 Engaged,Resume Builder Engaged,ePortfolio Engaged,14 Engaged,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O80" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P80" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q80" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="19" t="inlineStr">
+        <is>
+          <t>ftan5203@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B81" s="19" t="inlineStr">
+        <is>
+          <t>Feodora</t>
+        </is>
+      </c>
+      <c r="C81" s="19" t="inlineStr">
+        <is>
+          <t>Feodora</t>
+        </is>
+      </c>
+      <c r="D81" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H81" s="19" t="n">
+        <v>4013</v>
+      </c>
+      <c r="I81" s="21" t="n">
+        <v>3942</v>
+      </c>
+      <c r="J81" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K81" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M81" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N81" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O81" s="19" t="inlineStr">
+        <is>
+          <t>'|2|6|8|10|</t>
+        </is>
+      </c>
+      <c r="P81" s="19" t="inlineStr">
+        <is>
+          <t>'|2|6|8|10|</t>
+        </is>
+      </c>
+      <c r="Q81" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="19" t="inlineStr">
+        <is>
+          <t>yyan0660@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B82" s="19" t="inlineStr">
+        <is>
+          <t>Yi</t>
+        </is>
+      </c>
+      <c r="C82" s="19" t="inlineStr">
+        <is>
+          <t>Yi</t>
+        </is>
+      </c>
+      <c r="D82" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H82" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I82" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N82" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O82" s="19" t="inlineStr">
+        <is>
+          <t>'|12|14|8|</t>
+        </is>
+      </c>
+      <c r="P82" s="19" t="inlineStr">
+        <is>
+          <t>'|12|14|8|</t>
+        </is>
+      </c>
+      <c r="Q82" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="19" t="inlineStr">
+        <is>
+          <t>xche7150@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B83" s="19" t="inlineStr">
+        <is>
+          <t>Xin</t>
+        </is>
+      </c>
+      <c r="C83" s="19" t="inlineStr">
+        <is>
+          <t>Xin</t>
+        </is>
+      </c>
+      <c r="D83" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H83" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I83" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K83" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L83" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M83" s="19" t="n">
+        <v/>
+      </c>
+      <c r="N83" s="19" t="n">
+        <v/>
+      </c>
+      <c r="O83" s="19" t="inlineStr">
+        <is>
+          <t>'|34|8|</t>
+        </is>
+      </c>
+      <c r="P83" s="19" t="inlineStr">
+        <is>
+          <t>'|34|8|</t>
+        </is>
+      </c>
+      <c r="Q83" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="19" t="inlineStr">
+        <is>
+          <t>hgub0362@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B84" s="19" t="inlineStr">
+        <is>
+          <t>Hanson</t>
+        </is>
+      </c>
+      <c r="C84" s="19" t="inlineStr">
+        <is>
+          <t>Hanson</t>
+        </is>
+      </c>
+      <c r="D84" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I84" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J84" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N84" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O84" s="19" t="inlineStr">
+        <is>
+          <t>|14|28|27|</t>
+        </is>
+      </c>
+      <c r="P84" s="19" t="inlineStr">
+        <is>
+          <t>|14|28|27|</t>
+        </is>
+      </c>
+      <c r="Q84" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="19" t="inlineStr">
+        <is>
+          <t>kluk0001@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B85" s="19" t="inlineStr">
+        <is>
+          <t>Kristy</t>
+        </is>
+      </c>
+      <c r="C85" s="19" t="inlineStr">
+        <is>
+          <t>Kristy</t>
+        </is>
+      </c>
+      <c r="D85" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H85" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I85" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N85" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O85" s="19" t="inlineStr">
+        <is>
+          <t>'|14|16|27|42|3|</t>
+        </is>
+      </c>
+      <c r="P85" s="19" t="inlineStr">
+        <is>
+          <t>'|14|16|27|42|3|</t>
+        </is>
+      </c>
+      <c r="Q85" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="19" t="inlineStr">
+        <is>
+          <t>mgro0481@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B86" s="19" t="inlineStr">
+        <is>
+          <t>maya</t>
+        </is>
+      </c>
+      <c r="C86" s="19" t="inlineStr">
+        <is>
+          <t>maya</t>
+        </is>
+      </c>
+      <c r="D86" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="19" t="n">
+        <v>2985</v>
+      </c>
+      <c r="H86" s="19" t="n">
+        <v>2985</v>
+      </c>
+      <c r="I86" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K86" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L86" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M86" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N86" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,ePortfolio Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O86" s="19" t="inlineStr">
+        <is>
+          <t>'|3|4|5|6|7|14|</t>
+        </is>
+      </c>
+      <c r="P86" s="19" t="inlineStr">
+        <is>
+          <t>'|3|4|5|6|7|14|</t>
+        </is>
+      </c>
+      <c r="Q86" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="19" t="inlineStr">
+        <is>
+          <t>bqui0058@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B87" s="19" t="inlineStr">
+        <is>
+          <t>Byron</t>
+        </is>
+      </c>
+      <c r="C87" s="19" t="inlineStr">
+        <is>
+          <t>Byron</t>
+        </is>
+      </c>
+      <c r="D87" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H87" s="19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I87" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,12 Engaged,Resume Builder Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N87" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,12 Engaged,Resume Builder Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O87" s="19" t="inlineStr">
+        <is>
+          <t>'|9|19|23|28|34|12|</t>
+        </is>
+      </c>
+      <c r="P87" s="19" t="inlineStr">
+        <is>
+          <t>'|9|19|23|28|34|12|</t>
+        </is>
+      </c>
+      <c r="Q87" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="19" t="inlineStr">
+        <is>
+          <t>fzam0326@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B88" s="19" t="inlineStr">
+        <is>
+          <t>Firas</t>
+        </is>
+      </c>
+      <c r="C88" s="19" t="inlineStr">
+        <is>
+          <t>Firas</t>
+        </is>
+      </c>
+      <c r="D88" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I88" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J88" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K88" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L88" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M88" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N88" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O88" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P88" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q88" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="19" t="inlineStr">
+        <is>
+          <t>kgur0060@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B89" s="19" t="inlineStr">
+        <is>
+          <t>khushi</t>
+        </is>
+      </c>
+      <c r="C89" s="19" t="inlineStr">
+        <is>
+          <t>khushi</t>
+        </is>
+      </c>
+      <c r="D89" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="19" t="n">
+        <v>7117</v>
+      </c>
+      <c r="H89" s="19" t="n">
+        <v>7117</v>
+      </c>
+      <c r="I89" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,VWE Engaged,26 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N89" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,VWE Engaged,26 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O89" s="19" t="inlineStr">
+        <is>
+          <t>'|12|26|</t>
+        </is>
+      </c>
+      <c r="P89" s="19" t="inlineStr">
+        <is>
+          <t>'|12|26|</t>
+        </is>
+      </c>
+      <c r="Q89" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="19" t="inlineStr">
+        <is>
+          <t>cfan0281@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B90" s="19" t="inlineStr">
+        <is>
+          <t>Chenghao</t>
+        </is>
+      </c>
+      <c r="C90" s="19" t="inlineStr">
+        <is>
+          <t>Chenghao</t>
+        </is>
+      </c>
+      <c r="D90" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H90" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I90" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N90" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O90" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|</t>
+        </is>
+      </c>
+      <c r="P90" s="19" t="inlineStr">
+        <is>
+          <t>'|28|14|</t>
+        </is>
+      </c>
+      <c r="Q90" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="19" t="inlineStr">
+        <is>
+          <t>lmax0928@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B91" s="19" t="inlineStr">
+        <is>
+          <t>Leila</t>
+        </is>
+      </c>
+      <c r="C91" s="19" t="inlineStr">
+        <is>
+          <t>Leila</t>
+        </is>
+      </c>
+      <c r="D91" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H91" s="19" t="n">
+        <v>801</v>
+      </c>
+      <c r="I91" s="21" t="n">
+        <v>730</v>
+      </c>
+      <c r="J91" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N91" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged,Career Profiling Engaged,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O91" s="19" t="inlineStr">
+        <is>
+          <t>'|14|17|3|9|27|</t>
+        </is>
+      </c>
+      <c r="P91" s="19" t="inlineStr">
+        <is>
+          <t>'|14|17|3|9|27|</t>
+        </is>
+      </c>
+      <c r="Q91" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="19" t="inlineStr">
+        <is>
+          <t>nngu3377@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B92" s="19" t="inlineStr">
+        <is>
+          <t>Minh</t>
+        </is>
+      </c>
+      <c r="C92" s="19" t="inlineStr">
+        <is>
+          <t>Minh</t>
+        </is>
+      </c>
+      <c r="D92" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H92" s="19" t="n">
+        <v>182</v>
+      </c>
+      <c r="I92" s="21" t="n">
+        <v>41</v>
+      </c>
+      <c r="J92" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K92" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L92" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M92" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N92" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O92" s="19" t="inlineStr">
+        <is>
+          <t>'|8|14|28|</t>
+        </is>
+      </c>
+      <c r="P92" s="19" t="inlineStr">
+        <is>
+          <t>'|8|14|28|</t>
+        </is>
+      </c>
+      <c r="Q92" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="19" t="inlineStr">
+        <is>
+          <t>rarv0797@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B93" s="19" t="inlineStr">
+        <is>
+          <t>Rickey</t>
+        </is>
+      </c>
+      <c r="C93" s="19" t="inlineStr">
+        <is>
+          <t>Rickey</t>
+        </is>
+      </c>
+      <c r="D93" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H93" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I93" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N93" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O93" s="19" t="inlineStr">
+        <is>
+          <t>'|4|4|14|14|23|23|28|28|27|27|</t>
+        </is>
+      </c>
+      <c r="P93" s="19" t="inlineStr">
+        <is>
+          <t>'|4|4|14|14|23|23|28|28|27|27|</t>
+        </is>
+      </c>
+      <c r="Q93" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="19" t="inlineStr">
+        <is>
+          <t>akam0978@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B94" s="19" t="inlineStr">
+        <is>
+          <t>Akashdeep</t>
+        </is>
+      </c>
+      <c r="C94" s="19" t="inlineStr">
+        <is>
+          <t>Akashdeep</t>
+        </is>
+      </c>
+      <c r="D94" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H94" s="19" t="n">
+        <v>298</v>
+      </c>
+      <c r="I94" s="21" t="n">
+        <v>227</v>
+      </c>
+      <c r="J94" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N94" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O94" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|30|25|</t>
+        </is>
+      </c>
+      <c r="P94" s="19" t="inlineStr">
+        <is>
+          <t>'|7|14|30|25|</t>
+        </is>
+      </c>
+      <c r="Q94" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="19" t="inlineStr">
+        <is>
+          <t>jfen0943@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B95" s="19" t="inlineStr">
+        <is>
+          <t>Jilong</t>
+        </is>
+      </c>
+      <c r="C95" s="19" t="inlineStr">
+        <is>
+          <t>Jilong</t>
+        </is>
+      </c>
+      <c r="D95" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I95" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J95" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K95" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L95" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M95" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N95" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O95" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P95" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q95" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="19" t="inlineStr">
+        <is>
+          <t>pkud0841@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B96" s="19" t="inlineStr">
+        <is>
+          <t>Parth</t>
+        </is>
+      </c>
+      <c r="C96" s="19" t="inlineStr">
+        <is>
+          <t>Parth</t>
+        </is>
+      </c>
+      <c r="D96" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="19" t="n">
+        <v>210</v>
+      </c>
+      <c r="H96" s="19" t="n">
+        <v>210</v>
+      </c>
+      <c r="I96" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="19" t="inlineStr">
+        <is>
+          <t>"28 Engaged,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N96" s="19" t="inlineStr">
+        <is>
+          <t>"28 Engaged,MAU_2025JUL,Video Profiling,VWE Engaged,MAU_2025JUL,VWE Engaged,Completed USYD Survey 2 - Ask 1,28 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O96" s="19" t="inlineStr">
+        <is>
+          <t>'|28|22|14|12|15|27|</t>
+        </is>
+      </c>
+      <c r="P96" s="19" t="inlineStr">
+        <is>
+          <t>'|28|22|14|12|15|27|</t>
+        </is>
+      </c>
+      <c r="Q96" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="19" t="inlineStr">
+        <is>
+          <t>yima0254@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B97" s="19" t="inlineStr">
+        <is>
+          <t>Yidi</t>
+        </is>
+      </c>
+      <c r="C97" s="19" t="inlineStr">
+        <is>
+          <t>Yidi</t>
+        </is>
+      </c>
+      <c r="D97" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I97" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="N97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="O97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P97" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q97" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="19" t="inlineStr">
+        <is>
+          <t>yzho0254@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B98" s="19" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="C98" s="19" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="D98" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H98" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I98" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K98" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L98" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M98" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N98" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O98" s="19" t="inlineStr">
+        <is>
+          <t>'|20|19|23|28|27|</t>
+        </is>
+      </c>
+      <c r="P98" s="19" t="inlineStr">
+        <is>
+          <t>'|20|19|23|28|27|</t>
+        </is>
+      </c>
+      <c r="Q98" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="19" t="inlineStr">
+        <is>
+          <t>isih.0033@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B99" s="19" t="inlineStr">
+        <is>
+          <t>Irene</t>
+        </is>
+      </c>
+      <c r="C99" s="19" t="inlineStr">
+        <is>
+          <t>Irene</t>
+        </is>
+      </c>
+      <c r="D99" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="19" t="n">
+        <v>2803</v>
+      </c>
+      <c r="H99" s="19" t="n">
+        <v>2803</v>
+      </c>
+      <c r="I99" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N99" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O99" s="19" t="inlineStr">
+        <is>
+          <t>|14|18|23|27|35|42|28|22|</t>
+        </is>
+      </c>
+      <c r="P99" s="19" t="inlineStr">
+        <is>
+          <t>|14|18|23|27|35|42|28|22|</t>
+        </is>
+      </c>
+      <c r="Q99" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="19" t="inlineStr">
+        <is>
+          <t>ywan0960@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B100" s="19" t="inlineStr">
+        <is>
+          <t>Alioth</t>
+        </is>
+      </c>
+      <c r="C100" s="19" t="inlineStr">
+        <is>
+          <t>Alioth</t>
+        </is>
+      </c>
+      <c r="D100" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H100" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I100" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N100" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O100" s="19" t="inlineStr">
+        <is>
+          <t>'|10|10|14|14|23|23|26|26|27|27|</t>
+        </is>
+      </c>
+      <c r="P100" s="19" t="inlineStr">
+        <is>
+          <t>'|10|10|14|14|23|23|26|26|27|27|</t>
+        </is>
+      </c>
+      <c r="Q100" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="19" t="inlineStr">
+        <is>
+          <t>liye0963@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B101" s="19" t="inlineStr">
+        <is>
+          <t>LinJie</t>
+        </is>
+      </c>
+      <c r="C101" s="19" t="inlineStr">
+        <is>
+          <t>LinJie</t>
+        </is>
+      </c>
+      <c r="D101" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H101" s="19" t="n">
+        <v>96</v>
+      </c>
+      <c r="I101" s="21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N101" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O101" s="19" t="inlineStr">
+        <is>
+          <t>'|3|14|27|28|42|</t>
+        </is>
+      </c>
+      <c r="P101" s="19" t="inlineStr">
+        <is>
+          <t>'|3|14|27|28|42|</t>
+        </is>
+      </c>
+      <c r="Q101" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="19" t="inlineStr">
+        <is>
+          <t>gbha0804@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B102" s="19" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="C102" s="19" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="D102" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H102" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I102" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K102" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M102" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,14 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N102" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,14 Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O102" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|33|</t>
+        </is>
+      </c>
+      <c r="P102" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|33|</t>
+        </is>
+      </c>
+      <c r="Q102" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="19" t="inlineStr">
+        <is>
+          <t>psha0374@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B103" s="19" t="inlineStr">
+        <is>
+          <t>Pawani</t>
+        </is>
+      </c>
+      <c r="C103" s="19" t="inlineStr">
+        <is>
+          <t>Pawani</t>
+        </is>
+      </c>
+      <c r="D103" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I103" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J103" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K103" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L103" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M103" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N103" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O103" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P103" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q103" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="19" t="inlineStr">
+        <is>
+          <t>zche5226@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B104" s="19" t="inlineStr">
+        <is>
+          <t>Zixi</t>
+        </is>
+      </c>
+      <c r="C104" s="19" t="inlineStr">
+        <is>
+          <t>Zixi</t>
+        </is>
+      </c>
+      <c r="D104" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H104" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I104" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N104" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O104" s="19" t="inlineStr">
+        <is>
+          <t>'|8|12|14|28|</t>
+        </is>
+      </c>
+      <c r="P104" s="19" t="inlineStr">
+        <is>
+          <t>'|8|12|14|28|</t>
+        </is>
+      </c>
+      <c r="Q104" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="19" t="inlineStr">
+        <is>
+          <t>yzha0051@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B105" s="19" t="inlineStr">
+        <is>
+          <t>Yinhua</t>
+        </is>
+      </c>
+      <c r="C105" s="19" t="inlineStr">
+        <is>
+          <t>Yinhua</t>
+        </is>
+      </c>
+      <c r="D105" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I105" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J105" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K105" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L105" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M105" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N105" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O105" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P105" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q105" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="19" t="inlineStr">
+        <is>
+          <t>mfan0390@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B106" s="19" t="inlineStr">
+        <is>
+          <t>MINGMING</t>
+        </is>
+      </c>
+      <c r="C106" s="19" t="inlineStr">
+        <is>
+          <t>MINGMING</t>
+        </is>
+      </c>
+      <c r="D106" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="19" t="n">
+        <v>139</v>
+      </c>
+      <c r="H106" s="19" t="n">
+        <v>139</v>
+      </c>
+      <c r="I106" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N106" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O106" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P106" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q106" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="19" t="inlineStr">
+        <is>
+          <t>yliu0010@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B107" s="19" t="inlineStr">
+        <is>
+          <t>Yan</t>
+        </is>
+      </c>
+      <c r="C107" s="19" t="inlineStr">
+        <is>
+          <t>Yan</t>
+        </is>
+      </c>
+      <c r="D107" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="19" t="n">
+        <v>322</v>
+      </c>
+      <c r="H107" s="19" t="n">
+        <v>322</v>
+      </c>
+      <c r="I107" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L107" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M107" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N107" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O107" s="19" t="inlineStr">
+        <is>
+          <t>'|10|14|28|22|</t>
+        </is>
+      </c>
+      <c r="P107" s="19" t="inlineStr">
+        <is>
+          <t>'|10|14|28|22|</t>
+        </is>
+      </c>
+      <c r="Q107" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="19" t="inlineStr">
+        <is>
+          <t>shod0732@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B108" s="19" t="inlineStr">
+        <is>
+          <t>Sanskruti</t>
+        </is>
+      </c>
+      <c r="C108" s="19" t="inlineStr">
+        <is>
+          <t>Sanskruti</t>
+        </is>
+      </c>
+      <c r="D108" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H108" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I108" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N108" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O108" s="19" t="inlineStr">
+        <is>
+          <t>'|13|14|42|9|10|2|</t>
+        </is>
+      </c>
+      <c r="P108" s="19" t="inlineStr">
+        <is>
+          <t>'|13|14|42|9|10|2|</t>
+        </is>
+      </c>
+      <c r="Q108" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="19" t="inlineStr">
+        <is>
+          <t>mngu0728@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B109" s="19" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C109" s="19" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D109" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="19" t="n">
+        <v>271</v>
+      </c>
+      <c r="H109" s="19" t="n">
+        <v>271</v>
+      </c>
+      <c r="I109" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUN,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N109" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUN,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O109" s="19" t="inlineStr">
+        <is>
+          <t>'|15|22|27|8|14|</t>
+        </is>
+      </c>
+      <c r="P109" s="19" t="inlineStr">
+        <is>
+          <t>'|15|22|27|8|14|</t>
+        </is>
+      </c>
+      <c r="Q109" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="19" t="inlineStr">
+        <is>
+          <t>clam0550@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B110" s="19" t="inlineStr">
+        <is>
+          <t>Cheng</t>
+        </is>
+      </c>
+      <c r="C110" s="19" t="inlineStr">
+        <is>
+          <t>Cheng</t>
+        </is>
+      </c>
+      <c r="D110" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H110" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I110" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N110" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O110" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="P110" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="Q110" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="19" t="inlineStr">
+        <is>
+          <t>mmun0984@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B111" s="19" t="inlineStr">
+        <is>
+          <t>Meersha</t>
+        </is>
+      </c>
+      <c r="C111" s="19" t="inlineStr">
+        <is>
+          <t>Meersha</t>
+        </is>
+      </c>
+      <c r="D111" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F111" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I111" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J111" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K111" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L111" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M111" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N111" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O111" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P111" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q111" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="19" t="inlineStr">
+        <is>
+          <t>fanb0069@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B112" s="19" t="inlineStr">
+        <is>
+          <t>Fabliha</t>
+        </is>
+      </c>
+      <c r="C112" s="19" t="inlineStr">
+        <is>
+          <t>Fabliha</t>
+        </is>
+      </c>
+      <c r="D112" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="19" t="n">
+        <v>640</v>
+      </c>
+      <c r="H112" s="19" t="n">
+        <v>640</v>
+      </c>
+      <c r="I112" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K112" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L112" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M112" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,Job Suggestions,IND Resume Basics LES,IND Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N112" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling 10,Job Suggestions,IND Resume Basics LES,IND Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O112" s="19" t="inlineStr">
+        <is>
+          <t>'|7|11|14|25|</t>
+        </is>
+      </c>
+      <c r="P112" s="19" t="inlineStr">
+        <is>
+          <t>'|7|11|14|25|</t>
+        </is>
+      </c>
+      <c r="Q112" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="19" t="inlineStr">
+        <is>
+          <t>amat0369@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B113" s="19" t="inlineStr">
+        <is>
+          <t>Akshat</t>
+        </is>
+      </c>
+      <c r="C113" s="19" t="inlineStr">
+        <is>
+          <t>Akshat</t>
+        </is>
+      </c>
+      <c r="D113" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H113" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I113" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,28 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N113" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Job Suggestions,28 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O113" s="19" t="inlineStr">
+        <is>
+          <t>'|28|</t>
+        </is>
+      </c>
+      <c r="P113" s="19" t="inlineStr">
+        <is>
+          <t>'|28|</t>
+        </is>
+      </c>
+      <c r="Q113" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="19" t="inlineStr">
+        <is>
+          <t>hmal0760@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B114" s="19" t="inlineStr">
+        <is>
+          <t>Hooria</t>
+        </is>
+      </c>
+      <c r="C114" s="19" t="inlineStr">
+        <is>
+          <t>Hooria</t>
+        </is>
+      </c>
+      <c r="D114" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H114" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I114" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="N114" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged"</t>
+        </is>
+      </c>
+      <c r="O114" s="19" t="inlineStr">
+        <is>
+          <t>'|14|23|42|14|19|23|28|27|42|</t>
+        </is>
+      </c>
+      <c r="P114" s="19" t="inlineStr">
+        <is>
+          <t>'|14|23|42|14|19|23|28|27|42|</t>
+        </is>
+      </c>
+      <c r="Q114" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="19" t="inlineStr">
+        <is>
+          <t>svin0736@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B115" s="19" t="inlineStr">
+        <is>
+          <t>Surya</t>
+        </is>
+      </c>
+      <c r="C115" s="19" t="inlineStr">
+        <is>
+          <t>Surya</t>
+        </is>
+      </c>
+      <c r="D115" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H115" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N115" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O115" s="19" t="inlineStr">
+        <is>
+          <t>'|14|21|33|34|16|13|11|2|</t>
+        </is>
+      </c>
+      <c r="P115" s="19" t="inlineStr">
+        <is>
+          <t>'|14|21|33|34|16|13|11|2|</t>
+        </is>
+      </c>
+      <c r="Q115" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="19" t="inlineStr">
+        <is>
+          <t>asan0436@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B116" s="19" t="inlineStr">
+        <is>
+          <t>Apsara</t>
+        </is>
+      </c>
+      <c r="C116" s="19" t="inlineStr">
+        <is>
+          <t>Apsara</t>
+        </is>
+      </c>
+      <c r="D116" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="H116" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="I116" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N116" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,MAU_2025JUL,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O116" s="19" t="inlineStr">
+        <is>
+          <t>'|14|7|</t>
+        </is>
+      </c>
+      <c r="P116" s="19" t="inlineStr">
+        <is>
+          <t>'|14|7|</t>
+        </is>
+      </c>
+      <c r="Q116" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="19" t="inlineStr">
+        <is>
+          <t>ghen7929@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B117" s="19" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="C117" s="19" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="D117" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H117" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K117" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N117" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O117" s="19" t="inlineStr">
+        <is>
+          <t>'|3|7|11|14|27|28|42|</t>
+        </is>
+      </c>
+      <c r="P117" s="19" t="inlineStr">
+        <is>
+          <t>'|3|7|11|14|27|28|42|</t>
+        </is>
+      </c>
+      <c r="Q117" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="19" t="inlineStr">
+        <is>
+          <t>zzam0446@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B118" s="19" t="inlineStr">
+        <is>
+          <t>Zeba</t>
+        </is>
+      </c>
+      <c r="C118" s="19" t="inlineStr">
+        <is>
+          <t>Zeba</t>
+        </is>
+      </c>
+      <c r="D118" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I118" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="N118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="O118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P118" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q118" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="19" t="inlineStr">
+        <is>
+          <t>nefe0237@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B119" s="19" t="inlineStr">
+        <is>
+          <t>Nayla</t>
+        </is>
+      </c>
+      <c r="C119" s="19" t="inlineStr">
+        <is>
+          <t>Nayla</t>
+        </is>
+      </c>
+      <c r="D119" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H119" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged,3 Engaged"</t>
+        </is>
+      </c>
+      <c r="N119" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,Video Profiling,VWE Engaged,3 Engaged"</t>
+        </is>
+      </c>
+      <c r="O119" s="19" t="inlineStr">
+        <is>
+          <t>'|3|6|14|17|21|27|28|42|</t>
+        </is>
+      </c>
+      <c r="P119" s="19" t="inlineStr">
+        <is>
+          <t>'|3|6|14|17|21|27|28|42|</t>
+        </is>
+      </c>
+      <c r="Q119" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="19" t="inlineStr">
+        <is>
+          <t>vzho0083@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B120" s="19" t="inlineStr">
+        <is>
+          <t>Vicky</t>
+        </is>
+      </c>
+      <c r="C120" s="19" t="inlineStr">
+        <is>
+          <t>Vicky</t>
+        </is>
+      </c>
+      <c r="D120" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="19" t="n">
+        <v>1338</v>
+      </c>
+      <c r="H120" s="19" t="n">
+        <v>1338</v>
+      </c>
+      <c r="I120" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K120" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L120" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M120" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N120" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,"Career Profiling Engaged,MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O120" s="19" t="inlineStr">
+        <is>
+          <t>'|8|5|7|15|21|27|28|35|42|22|14|</t>
+        </is>
+      </c>
+      <c r="P120" s="19" t="inlineStr">
+        <is>
+          <t>'|8|5|7|15|21|27|28|35|42|22|14|</t>
+        </is>
+      </c>
+      <c r="Q120" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="19" t="inlineStr">
+        <is>
+          <t>wzhu0406@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B121" s="19" t="inlineStr">
+        <is>
+          <t>wenhua</t>
+        </is>
+      </c>
+      <c r="C121" s="19" t="inlineStr">
+        <is>
+          <t>wenhua</t>
+        </is>
+      </c>
+      <c r="D121" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H121" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K121" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L121" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M121" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N121" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O121" s="19" t="inlineStr">
+        <is>
+          <t>'|27|22|14|</t>
+        </is>
+      </c>
+      <c r="P121" s="19" t="inlineStr">
+        <is>
+          <t>'|27|22|14|</t>
+        </is>
+      </c>
+      <c r="Q121" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="19" t="inlineStr">
+        <is>
+          <t>hche0081@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B122" s="19" t="inlineStr">
+        <is>
+          <t>HanLin</t>
+        </is>
+      </c>
+      <c r="C122" s="19" t="inlineStr">
+        <is>
+          <t>HanLin</t>
+        </is>
+      </c>
+      <c r="D122" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I122" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J122" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N122" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O122" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P122" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q122" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="19" t="inlineStr">
+        <is>
+          <t>mshe0324@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B123" s="19" t="inlineStr">
+        <is>
+          <t>Mingyu</t>
+        </is>
+      </c>
+      <c r="C123" s="19" t="inlineStr">
+        <is>
+          <t>Mingyu</t>
+        </is>
+      </c>
+      <c r="D123" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H123" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N123" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged,Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O123" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|28|</t>
+        </is>
+      </c>
+      <c r="P123" s="19" t="inlineStr">
+        <is>
+          <t>'|14|22|28|</t>
+        </is>
+      </c>
+      <c r="Q123" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="19" t="inlineStr">
+        <is>
+          <t>rliu0288@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B124" s="19" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="C124" s="19" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="D124" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I124" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J124" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUN,VWE Engaged</t>
+        </is>
+      </c>
+      <c r="N124" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUN,VWE Engaged</t>
+        </is>
+      </c>
+      <c r="O124" s="19" t="inlineStr">
+        <is>
+          <t>'|13|14|</t>
+        </is>
+      </c>
+      <c r="P124" s="19" t="inlineStr">
+        <is>
+          <t>'|13|14|</t>
+        </is>
+      </c>
+      <c r="Q124" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="19" t="inlineStr">
+        <is>
+          <t>djha1000@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B125" s="19" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="C125" s="19" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="D125" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="H125" s="19" t="n">
+        <v>403</v>
+      </c>
+      <c r="I125" s="21" t="n">
+        <v>262</v>
+      </c>
+      <c r="J125" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N125" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O125" s="19" t="inlineStr">
+        <is>
+          <t>'|1|2|7|8|5|</t>
+        </is>
+      </c>
+      <c r="P125" s="19" t="inlineStr">
+        <is>
+          <t>'|1|2|7|8|5|</t>
+        </is>
+      </c>
+      <c r="Q125" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="19" t="inlineStr">
+        <is>
+          <t>bsub0921@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B126" s="19" t="inlineStr">
+        <is>
+          <t>Bathrinathan</t>
+        </is>
+      </c>
+      <c r="C126" s="19" t="inlineStr">
+        <is>
+          <t>Bathrinathan</t>
+        </is>
+      </c>
+      <c r="D126" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H126" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I126" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K126" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L126" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M126" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling"</t>
+        </is>
+      </c>
+      <c r="N126" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling"</t>
+        </is>
+      </c>
+      <c r="O126" s="19" t="inlineStr">
+        <is>
+          <t>'|1|2|3|8|12|14|15|16|21|28|26|25|34|19|23|</t>
+        </is>
+      </c>
+      <c r="P126" s="19" t="inlineStr">
+        <is>
+          <t>'|1|2|3|8|12|14|15|16|21|28|26|25|34|19|23|</t>
+        </is>
+      </c>
+      <c r="Q126" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="19" t="inlineStr">
+        <is>
+          <t>apra0996@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B127" s="19" t="inlineStr">
+        <is>
+          <t>Anirudha</t>
+        </is>
+      </c>
+      <c r="C127" s="19" t="inlineStr">
+        <is>
+          <t>Anirudha</t>
+        </is>
+      </c>
+      <c r="D127" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="19" t="n">
+        <v>654</v>
+      </c>
+      <c r="H127" s="19" t="n">
+        <v>654</v>
+      </c>
+      <c r="I127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Job Suggestions,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N127" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling 5,Career Profiling Engaged,Job Suggestions,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="O127" s="19" t="inlineStr">
+        <is>
+          <t>'|14|27|28|</t>
+        </is>
+      </c>
+      <c r="P127" s="19" t="inlineStr">
+        <is>
+          <t>'|14|27|28|</t>
+        </is>
+      </c>
+      <c r="Q127" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="19" t="inlineStr">
+        <is>
+          <t>rnag0014@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B128" s="19" t="inlineStr">
+        <is>
+          <t>Rohith</t>
+        </is>
+      </c>
+      <c r="C128" s="19" t="inlineStr">
+        <is>
+          <t>Rohith</t>
+        </is>
+      </c>
+      <c r="D128" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="19" t="n">
+        <v>53</v>
+      </c>
+      <c r="H128" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I128" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="J128" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="19" t="n">
+        <v/>
+      </c>
+      <c r="N128" s="19" t="n">
+        <v/>
+      </c>
+      <c r="O128" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="P128" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="Q128" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="19" t="inlineStr">
+        <is>
+          <t>jili0696@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B129" s="19" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="C129" s="19" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="D129" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H129" s="19" t="n">
+        <v>547</v>
+      </c>
+      <c r="I129" s="21" t="n">
+        <v>476</v>
+      </c>
+      <c r="J129" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="19" t="inlineStr">
+        <is>
+          <t>"Career Profiling Engaged,Completed USYD Survey 1 - Ask 1,Job Suggestions,14 Engaged,Video Profiling,VWE Engaged"</t>
+        </is>
+      </c>
+      <c r="N129" s="19" t="inlineStr">
+        <is>
+          <t>"Video Profiling,Job Suggestions,14 Engaged,Career Profiling Engaged,Completed USYD Survey 1 - Ask 1"</t>
+        </is>
+      </c>
+      <c r="O129" s="19" t="inlineStr">
+        <is>
+          <t>'|3|7|11|14|</t>
+        </is>
+      </c>
+      <c r="P129" s="19" t="inlineStr">
+        <is>
+          <t>'|3|7|11|14|</t>
+        </is>
+      </c>
+      <c r="Q129" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="19" t="inlineStr">
+        <is>
+          <t>este0478@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B130" s="19" t="inlineStr">
+        <is>
+          <t>Edeline</t>
+        </is>
+      </c>
+      <c r="C130" s="19" t="inlineStr">
+        <is>
+          <t>Edeline</t>
+        </is>
+      </c>
+      <c r="D130" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I130" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J130" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K130" s="19" t="n">
+        <v/>
+      </c>
+      <c r="L130" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M130" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="N130" s="19" t="inlineStr">
+        <is>
+          <t>"MAU_2025JUL"</t>
+        </is>
+      </c>
+      <c r="O130" s="19" t="n">
+        <v/>
+      </c>
+      <c r="P130" s="19" t="n">
+        <v/>
+      </c>
+      <c r="Q130" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="19" t="inlineStr">
+        <is>
+          <t>dtru0671@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B131" s="19" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C131" s="19" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="D131" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="19" t="n">
+        <v>14376</v>
+      </c>
+      <c r="H131" s="19" t="n">
+        <v>14376</v>
+      </c>
+      <c r="I131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,37 38 39 40 41 Engaged,Job Suggestions,8 Engaged,VWE Engaged,ePortfolio Engaged,Video Profiling,7 Engaged"</t>
+        </is>
+      </c>
+      <c r="N131" s="19" t="inlineStr">
+        <is>
+          <t>"Completed USYD Survey 1 - Ask 1,MAU_2025JUL,37 38 39 40 41 Engaged,Job Suggestions,8 Engaged,VWE Engaged,ePortfolio Engaged,Video Profiling,7 Engaged"</t>
+        </is>
+      </c>
+      <c r="O131" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="P131" s="19" t="inlineStr">
+        <is>
+          <t>'|14|</t>
+        </is>
+      </c>
+      <c r="Q131" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="19" t="inlineStr">
+        <is>
+          <t>abah0923@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B132" s="19" t="inlineStr">
+        <is>
+          <t>Amir</t>
+        </is>
+      </c>
+      <c r="C132" s="19" t="inlineStr">
+        <is>
+          <t>Amir</t>
+        </is>
+      </c>
+      <c r="D132" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="H132" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="I132" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" s="19" t="n">
+        <v/>
+      </c>
+      <c r="N132" s="19" t="n">
+        <v/>
+      </c>
+      <c r="O132" s="19" t="inlineStr">
+        <is>
+          <t>'|7|</t>
+        </is>
+      </c>
+      <c r="P132" s="19" t="inlineStr">
+        <is>
+          <t>'|7|</t>
+        </is>
+      </c>
+      <c r="Q132" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="19" t="inlineStr">
+        <is>
+          <t>esuw5153@uni.sydney.edu.au</t>
+        </is>
+      </c>
+      <c r="B133" s="19" t="inlineStr">
+        <is>
+          <t>Edbert</t>
+        </is>
+      </c>
+      <c r="C133" s="19" t="inlineStr">
+        <is>
+          <t>Edbert</t>
+        </is>
+      </c>
+      <c r="D133" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="19" t="n">
+        <v>10500</v>
+      </c>
+      <c r="H133" s="19" t="n">
+        <v>10500</v>
+      </c>
+      <c r="I133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" s="19" t="n">
+        <v/>
+      </c>
+      <c r="K133" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L133" s="19" t="n">
+        <v/>
+      </c>
+      <c r="M133" s="19" t="inlineStr">
+        <is>
+          <t>"28 Engaged,Resume Builder Engaged"</t>
+        </is>
+      </c>
+      <c r="N133" s="19" t="inlineStr">
+        <is>
+          <t>"28 Engaged,Resume Builder Engaged"</t>
+        </is>
+      </c>
+      <c r="O133" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="P133" s="19" t="inlineStr">
+        <is>
+          <t>'|14|28|</t>
+        </is>
+      </c>
+      <c r="Q133" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134"/>
+    <row r="135">
+      <c r="A135" s="23" t="inlineStr">
+        <is>
+          <t>SUMMARY STATISTICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="24" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B136" s="24" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C136" s="24" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="D136" s="24" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="25" t="inlineStr">
+        <is>
+          <t>Total Existing Users</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="C137" s="26">
+        <f>COUNTA(A:A)-3</f>
+        <v/>
+      </c>
+      <c r="D137" s="19" t="inlineStr">
+        <is>
+          <t>Count of users present in both July and August</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="25" t="inlineStr">
+        <is>
+          <t>Users with Increased Login Activity</t>
+        </is>
+      </c>
+      <c r="B138" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C138" s="26">
+        <f>COUNTIF(F:F,"&gt;0")</f>
+        <v/>
+      </c>
+      <c r="D138" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with more web sessions in August</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="25" t="inlineStr">
+        <is>
+          <t>Users with Decreased Login Activity</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="26">
+        <f>COUNTIF(F:F,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="D139" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with fewer web sessions in August</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="25" t="inlineStr">
+        <is>
+          <t>Users with Same Login Activity</t>
+        </is>
+      </c>
+      <c r="B140" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="C140" s="26">
+        <f>COUNTIF(F:F,0)</f>
+        <v/>
+      </c>
+      <c r="D140" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with same web sessions</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="25" t="inlineStr">
+        <is>
+          <t>Users with Increased Login Time</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="C141" s="26">
+        <f>COUNTIF(I:I,"&gt;0")</f>
+        <v/>
+      </c>
+      <c r="D141" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with longer login times in August</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="25" t="inlineStr">
+        <is>
+          <t>Users with Decreased Login Time</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" s="26">
+        <f>COUNTIF(I:I,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="D142" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with shorter login times in August</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="25" t="inlineStr">
+        <is>
+          <t>Users with Increased VWE</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C143" s="26">
+        <f>COUNTIF(L:L,"&gt;0")</f>
+        <v/>
+      </c>
+      <c r="D143" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with increased VWE in August</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="25" t="inlineStr">
+        <is>
+          <t>Users with Decreased VWE</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="26">
+        <f>COUNTIF(L:L,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="D144" s="19" t="inlineStr">
+        <is>
+          <t>Number of users with decreased VWE in August</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="25" t="inlineStr">
+        <is>
+          <t>Average Login Increase</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="n">
+        <v>0.3307692307692308</v>
+      </c>
+      <c r="C145" s="26">
+        <f>AVERAGE(F:F)</f>
+        <v/>
+      </c>
+      <c r="D145" s="19" t="inlineStr">
+        <is>
+          <t>Average increase in web sessions from July to August</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="25" t="inlineStr">
+        <is>
+          <t>Average Time Increase (seconds)</t>
+        </is>
+      </c>
+      <c r="B146" s="6" t="n">
+        <v>152.0461538461539</v>
+      </c>
+      <c r="C146" s="26">
+        <f>AVERAGE(I:I)</f>
+        <v/>
+      </c>
+      <c r="D146" s="19" t="inlineStr">
+        <is>
+          <t>Average increase in login time from July to August</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="25" t="inlineStr">
+        <is>
+          <t>Average VWE Increase</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="n">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="C147" s="26">
+        <f>AVERAGE(L:L)</f>
+        <v/>
+      </c>
+      <c r="D147" s="19" t="inlineStr">
+        <is>
+          <t>Average increase in VWE from July to August</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" s="23" t="inlineStr">
+        <is>
+          <t>FORMULA EXAMPLES FOR MANUAL CALCULATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="24" t="inlineStr">
+        <is>
+          <t>Calculation</t>
+        </is>
+      </c>
+      <c r="B150" s="24" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="C150" s="24" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="D150" s="24" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="25" t="inlineStr">
+        <is>
+          <t>Login Increase</t>
+        </is>
+      </c>
+      <c r="B151" s="26">
+        <f>August_Web_Sessions - July_Login_Count</f>
+        <v/>
+      </c>
+      <c r="C151" s="19">
+        <f>C2 - B2</f>
+        <v/>
+      </c>
+      <c r="D151" s="19" t="inlineStr">
+        <is>
+          <t>Positive = Increased activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="25" t="inlineStr">
+        <is>
+          <t>Time Increase</t>
+        </is>
+      </c>
+      <c r="B152" s="26">
+        <f>August_Avg_Login_Time - July_Avg_Login_Time</f>
+        <v/>
+      </c>
+      <c r="C152" s="19">
+        <f>F2 - E2</f>
+        <v/>
+      </c>
+      <c r="D152" s="19" t="inlineStr">
+        <is>
+          <t>Positive = Longer login time</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="25" t="inlineStr">
+        <is>
+          <t>VWE Increase</t>
+        </is>
+      </c>
+      <c r="B153" s="26">
+        <f>August_VWE - July_VWE</f>
+        <v/>
+      </c>
+      <c r="C153" s="19">
+        <f>I2 - H2</f>
+        <v/>
+      </c>
+      <c r="D153" s="19" t="inlineStr">
+        <is>
+          <t>Positive = Increased VWE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="25" t="inlineStr">
+        <is>
+          <t>Percentage Change</t>
+        </is>
+      </c>
+      <c r="B154" s="26">
+        <f>(August_Value - July_Value)/July_Value</f>
+        <v/>
+      </c>
+      <c r="C154" s="19">
+        <f>(C2-B2)/B2</f>
+        <v/>
+      </c>
+      <c r="D154" s="19" t="inlineStr">
+        <is>
+          <t>Decimal result (multiply by 100 for %)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A135:Q135"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A149:Q149"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>